--- a/csv_files/first 3 layers - with noise/summary.xlsx
+++ b/csv_files/first 3 layers - with noise/summary.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\particles_repo\csv_files\first 3 layers - with noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E42856A-ACA0-499E-A3DF-8E789B8D5044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="396" windowWidth="12048" windowHeight="13752"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,22 +40,22 @@
     <t>output</t>
   </si>
   <si>
-    <t>rel error</t>
+    <t>statistics</t>
   </si>
   <si>
-    <t>mean rel error</t>
+    <t>bias</t>
   </si>
   <si>
-    <t>stdev rel error</t>
+    <t>mean bias</t>
   </si>
   <si>
-    <t>statistics</t>
+    <t>stdev bias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,10 +173,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="טוב" xfId="1" builtinId="26"/>
-    <cellStyle name="ניטראלי" xfId="3" builtinId="28"/>
-    <cellStyle name="רע" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -193,9 +192,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -235,62 +234,65 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -305,66 +307,66 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27821</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16085</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3256</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1586</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3850</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13820</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23984</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30574</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31711</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28373</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23008</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16681</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11209</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6885</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3740</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1922</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>909</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B03C-4D47-AFFC-825DDFA7BBD0}"/>
             </c:ext>
@@ -462,69 +464,69 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-1.5733168348669999</c:v>
+                  <c:v>9.4961453368887305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.690636076033101</c:v>
+                  <c:v>122.365426447242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3769.7218513488701</c:v>
+                  <c:v>3839.2240967750499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13534.341180801301</c:v>
+                  <c:v>13829.1057195663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24207.2341537475</c:v>
+                  <c:v>24488.184426307598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30687.266315460201</c:v>
+                  <c:v>30932.3873147964</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31944.9254417419</c:v>
+                  <c:v>31899.262825965801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28409.751113891602</c:v>
+                  <c:v>28132.318481922099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22645.056672096202</c:v>
+                  <c:v>22307.254724025701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16347.9857137203</c:v>
+                  <c:v>15818.749860242</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10635.442755907699</c:v>
+                  <c:v>10424.0320671871</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6086.6681399345398</c:v>
+                  <c:v>6046.1180417276901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3420.55478985235</c:v>
+                  <c:v>3059.7596466243199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1893.3898644037499</c:v>
+                  <c:v>1382.91515196859</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>752.88582630828</c:v>
+                  <c:v>704.59576191753104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>391.62858895212401</c:v>
+                  <c:v>192.18175794929201</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76.444737226702202</c:v>
+                  <c:v>102.840276956558</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4922209829091999</c:v>
+                  <c:v>-128.811319026397</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.5495891459286</c:v>
+                  <c:v>-0.68257367424666804</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.2535890629515</c:v>
+                  <c:v>35.129503801464999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B03C-4D47-AFFC-825DDFA7BBD0}"/>
             </c:ext>
@@ -539,11 +541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="349037832"/>
-        <c:axId val="305129728"/>
+        <c:axId val="474139928"/>
+        <c:axId val="474140712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349037832"/>
+        <c:axId val="474139928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,6 +591,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -655,7 +658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305129728"/>
+        <c:crossAx val="474140712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -663,7 +666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305129728"/>
+        <c:axId val="474140712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -709,6 +712,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -775,7 +779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349037832"/>
+        <c:crossAx val="474139928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -825,9 +829,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -839,6 +843,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -978,70 +983,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-1.5733168348669999</c:v>
+                  <c:v>9.4961453368887305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.690636076033101</c:v>
+                  <c:v>-2.634573552757999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3647.7218513488701</c:v>
+                  <c:v>-104.77590322495007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9684.3411808013007</c:v>
+                  <c:v>-196.89428043370026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10387.2341537475</c:v>
+                  <c:v>-334.81557369240181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6703.2663154602014</c:v>
+                  <c:v>4.3873147964004602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1370.9254417418997</c:v>
+                  <c:v>133.26282596580131</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3301.2488861083984</c:v>
+                  <c:v>311.31848192209873</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5727.9433279037985</c:v>
+                  <c:v>-29.745275974299147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6660.0142862797002</c:v>
+                  <c:v>-266.25013975799993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6045.5572440923006</c:v>
+                  <c:v>173.03206718709953</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5122.3318600654602</c:v>
+                  <c:v>74.11804172769007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3464.44521014765</c:v>
+                  <c:v>-196.24035337568012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1846.6101355962501</c:v>
+                  <c:v>-203.08484803141005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1169.11417369172</c:v>
+                  <c:v>101.59576191753104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-517.37141104787599</c:v>
+                  <c:v>-1.8182420507079939</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-279.55526277329778</c:v>
+                  <c:v>52.840276956558</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-139.5077790170908</c:v>
+                  <c:v>-131.811319026397</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.5495891459286</c:v>
+                  <c:v>-0.68257367424666804</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.2535890629514999</c:v>
+                  <c:v>35.129503801464999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A38-40D2-AECE-4B522302A334}"/>
             </c:ext>
@@ -1055,11 +1060,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301267848"/>
-        <c:axId val="346508896"/>
+        <c:axId val="474143064"/>
+        <c:axId val="474144632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301267848"/>
+        <c:axId val="474143064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,6 +1110,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1171,12 +1177,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346508896"/>
+        <c:crossAx val="474144632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346508896"/>
+        <c:axId val="474144632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,6 +1233,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1293,7 +1300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301267848"/>
+        <c:crossAx val="474143064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2474,7 +2481,7 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2517,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2827,23 +2834,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2853,7 +2860,7 @@
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -2862,7 +2869,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0</v>
       </c>
@@ -2870,16 +2877,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -2887,820 +2897,814 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-1.5733168348669999</v>
+        <v>9.4961453368887305</v>
       </c>
       <c r="E3" s="1">
         <f>(D3-B3)</f>
-        <v>-1.5733168348669999</v>
+        <v>9.4961453368887305</v>
       </c>
       <c r="F3">
         <f>AVERAGE(E3:E22)</f>
-        <v>-119.41450680868623</v>
+        <v>-28.678633159150905</v>
       </c>
       <c r="G3">
         <f>_xlfn.STDEV.P(E3:E22)</f>
-        <v>4634.1937829961653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>154.73835694990436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>69.690636076033101</v>
+        <v>122.365426447242</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E22" si="0">(D4-B4)</f>
-        <v>69.690636076033101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-2.634573552757999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>122</v>
+        <v>3944</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3769.7218513488701</v>
+        <v>3839.2240967750499</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>3647.7218513488701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-104.77590322495007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3850</v>
+        <v>14026</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>13534.341180801301</v>
+        <v>13829.1057195663</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>9684.3411808013007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-196.89428043370026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>13820</v>
+        <v>24823</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>24207.2341537475</v>
+        <v>24488.184426307598</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>10387.2341537475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-334.81557369240181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>23984</v>
+        <v>30928</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>30687.266315460201</v>
+        <v>30932.3873147964</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>6703.2663154602014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.3873147964004602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>30574</v>
+        <v>31766</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>31944.9254417419</v>
+        <v>31899.262825965801</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>1370.9254417418997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133.26282596580131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>31711</v>
+        <v>27821</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10">
-        <v>28409.751113891602</v>
+        <v>28132.318481922099</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>-3301.2488861083984</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>311.31848192209873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>28373</v>
+        <v>22337</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>22645.056672096202</v>
+        <v>22307.254724025701</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>-5727.9433279037985</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-29.745275974299147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>23008</v>
+        <v>16085</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>16347.9857137203</v>
+        <v>15818.749860242</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>-6660.0142862797002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-266.25013975799993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>16681</v>
+        <v>10251</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13">
-        <v>10635.442755907699</v>
+        <v>10424.0320671871</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>-6045.5572440923006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>173.03206718709953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>11209</v>
+        <v>5972</v>
       </c>
       <c r="C14">
         <v>11</v>
       </c>
       <c r="D14">
-        <v>6086.6681399345398</v>
+        <v>6046.1180417276901</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>-5122.3318600654602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74.11804172769007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>6885</v>
+        <v>3256</v>
       </c>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>3420.55478985235</v>
+        <v>3059.7596466243199</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>-3464.44521014765</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-196.24035337568012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>3740</v>
+        <v>1586</v>
       </c>
       <c r="C16">
         <v>13</v>
       </c>
       <c r="D16">
-        <v>1893.3898644037499</v>
+        <v>1382.91515196859</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>-1846.6101355962501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-203.08484803141005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>1922</v>
+        <v>603</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17">
-        <v>752.88582630828</v>
+        <v>704.59576191753104</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>-1169.11417369172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101.59576191753104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>909</v>
+        <v>194</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18">
-        <v>391.62858895212401</v>
+        <v>192.18175794929201</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>-517.37141104787599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-1.8182420507079939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>356</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19">
-        <v>76.444737226702202</v>
+        <v>102.840276956558</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>-279.55526277329778</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52.840276956558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>17</v>
       </c>
       <c r="D20">
-        <v>3.4922209829091999</v>
+        <v>-128.811319026397</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>-139.5077790170908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-131.811319026397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>18</v>
       </c>
       <c r="D21">
-        <v>40.5495891459286</v>
+        <v>-0.68257367424666804</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>15.5495891459286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-0.68257367424666804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>19</v>
       </c>
       <c r="D22">
-        <v>12.2535890629515</v>
+        <v>35.129503801464999</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>8.2535890629514999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
+        <v>35.129503801464999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -3718,7 +3722,7 @@
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3736,7 +3740,7 @@
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -3754,7 +3758,7 @@
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -3772,7 +3776,7 @@
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -3790,7 +3794,7 @@
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3808,7 +3812,7 @@
       <c r="O121" s="6"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3831,7 +3835,7 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3849,7 +3853,7 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3867,7 +3871,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3885,7 +3889,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -3903,7 +3907,7 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -3921,527 +3925,527 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
     </row>
-    <row r="209" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
     </row>
-    <row r="210" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
     </row>
-    <row r="211" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
     </row>
-    <row r="212" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
     </row>
-    <row r="213" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
     </row>
-    <row r="214" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
     </row>
-    <row r="215" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
     </row>
-    <row r="216" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
     </row>
-    <row r="217" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
     </row>
-    <row r="218" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
     </row>
-    <row r="219" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
     </row>
-    <row r="220" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
     </row>
-    <row r="221" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
     </row>
-    <row r="222" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
     </row>
-    <row r="223" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
     </row>
-    <row r="224" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
     </row>
-    <row r="225" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
     </row>
-    <row r="226" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
     </row>
-    <row r="227" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
     </row>
-    <row r="228" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
     </row>
-    <row r="229" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
     </row>
-    <row r="230" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
-    <row r="231" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
     </row>
-    <row r="232" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
